--- a/outputs-GTDB-r202/g__UBA1232.xlsx
+++ b/outputs-GTDB-r202/g__UBA1232.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>s__UBA1232 sp004561775</t>
+          <t>s__UBA1232 sp004561775(reject)</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>s__UBA1232 sp004561775</t>
+          <t>s__UBA1232 sp004561775(reject)</t>
         </is>
       </c>
     </row>
